--- a/DKS-API/Resources/Template/TempF505.xlsx
+++ b/DKS-API/Resources/Template/TempF505.xlsx
@@ -15,10 +15,9 @@
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$V$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -521,9 +520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -633,7 +632,7 @@
       <c r="U2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I1"/>
+  <autoFilter ref="A1:V1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
